--- a/ProjectOtherFiles/LoadCellAmplifier-Workbook.xlsx
+++ b/ProjectOtherFiles/LoadCellAmplifier-Workbook.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="1380" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="38500" yWindow="-3120" windowWidth="20980" windowHeight="20980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wheatsone Bridge" sheetId="1" r:id="rId1"/>
-    <sheet name="Placement" sheetId="2" r:id="rId2"/>
-    <sheet name="TI Circuit" sheetId="3" r:id="rId3"/>
+    <sheet name="Placement revB" sheetId="4" r:id="rId2"/>
+    <sheet name="Placement revA" sheetId="2" r:id="rId3"/>
+    <sheet name="TI Circuit" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="55">
   <si>
     <t>Wheatstone bridge like so:</t>
   </si>
@@ -159,6 +160,33 @@
   </si>
   <si>
     <t>watts</t>
+  </si>
+  <si>
+    <t>UNIT 5</t>
+  </si>
+  <si>
+    <t>UNIT 6</t>
+  </si>
+  <si>
+    <t>UNIT 7</t>
+  </si>
+  <si>
+    <t>UNIT 8</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -168,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +226,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +249,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -264,8 +297,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -284,8 +339,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -309,6 +383,17 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -332,6 +417,17 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1009,10 +1105,1562 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="N4" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.63</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <f>D5+I$4</f>
+        <v>4.7449999999999992</v>
+      </c>
+      <c r="J5" s="4">
+        <f>E5</f>
+        <v>2.63</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="10">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4">
+        <f>I5+N$4</f>
+        <v>5.2649999999999988</v>
+      </c>
+      <c r="O5" s="4">
+        <f>J5</f>
+        <v>2.63</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="10">
+        <v>6</v>
+      </c>
+      <c r="S5" s="4">
+        <f>N5+S$4</f>
+        <v>5.7849999999999984</v>
+      </c>
+      <c r="T5" s="4">
+        <f>O5</f>
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.2030000000000003</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <f>D6+I$4</f>
+        <v>4.7230000000000008</v>
+      </c>
+      <c r="J6" s="4">
+        <f>E6</f>
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="10">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
+        <f>I6+N$4</f>
+        <v>5.2430000000000003</v>
+      </c>
+      <c r="O6" s="4">
+        <f>J6</f>
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="10">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4">
+        <f>N6+S$4</f>
+        <v>5.7629999999999999</v>
+      </c>
+      <c r="T6" s="4">
+        <f>O6</f>
+        <v>2.9830000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.15</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4">
+        <f>D7+I$4</f>
+        <v>4.7449999999999992</v>
+      </c>
+      <c r="J7" s="4">
+        <f>E7</f>
+        <v>3.15</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="10">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4">
+        <f>I7+N$4</f>
+        <v>5.2649999999999988</v>
+      </c>
+      <c r="O7" s="4">
+        <f>J7</f>
+        <v>3.15</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="10">
+        <v>8</v>
+      </c>
+      <c r="S7" s="4">
+        <f>N7+S$4</f>
+        <v>5.7849999999999984</v>
+      </c>
+      <c r="T7" s="4">
+        <f>O7</f>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="6" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="1"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="1"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <f>D9+I$4</f>
+        <v>4.5649999999999995</v>
+      </c>
+      <c r="J9" s="4">
+        <f>E9</f>
+        <v>2.82</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="10">
+        <v>7</v>
+      </c>
+      <c r="N9" s="4">
+        <f>I9+N$4</f>
+        <v>5.0849999999999991</v>
+      </c>
+      <c r="O9" s="4">
+        <f>J9</f>
+        <v>2.82</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="10">
+        <v>8</v>
+      </c>
+      <c r="S9" s="4">
+        <f>N9+S$4</f>
+        <v>5.6049999999999986</v>
+      </c>
+      <c r="T9" s="4">
+        <f>O9</f>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <f>D10+I$4</f>
+        <v>4.6400000000000006</v>
+      </c>
+      <c r="J10" s="4">
+        <f>E10</f>
+        <v>2.82</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="10">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4">
+        <f>I10+N$4</f>
+        <v>5.16</v>
+      </c>
+      <c r="O10" s="4">
+        <f>J10</f>
+        <v>2.82</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="10">
+        <v>12</v>
+      </c>
+      <c r="S10" s="4">
+        <f>N10+S$4</f>
+        <v>5.68</v>
+      </c>
+      <c r="T10" s="4">
+        <f>O10</f>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="10">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="10">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4">
+        <f>D11+I$4</f>
+        <v>4.7100000000000009</v>
+      </c>
+      <c r="J11" s="4">
+        <f>E11</f>
+        <v>2.82</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="10">
+        <v>14</v>
+      </c>
+      <c r="N11" s="4">
+        <f>I11+N$4</f>
+        <v>5.23</v>
+      </c>
+      <c r="O11" s="4">
+        <f>J11</f>
+        <v>2.82</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="10">
+        <v>16</v>
+      </c>
+      <c r="S11" s="4">
+        <f>N11+S$4</f>
+        <v>5.75</v>
+      </c>
+      <c r="T11" s="4">
+        <f>O11</f>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4.26</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="10">
+        <v>7</v>
+      </c>
+      <c r="I12" s="4">
+        <f>D12+I$4</f>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="J12" s="4">
+        <f>E12</f>
+        <v>2.82</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="10">
+        <v>13</v>
+      </c>
+      <c r="N12" s="4">
+        <f>I12+N$4</f>
+        <v>5.2999999999999989</v>
+      </c>
+      <c r="O12" s="4">
+        <f>J12</f>
+        <v>2.82</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" s="10">
+        <v>15</v>
+      </c>
+      <c r="S12" s="4">
+        <f>N12+S$4</f>
+        <v>5.8199999999999985</v>
+      </c>
+      <c r="T12" s="4">
+        <f>O12</f>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4.33</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="10">
+        <v>3</v>
+      </c>
+      <c r="I13" s="11">
+        <f>D13+I$4</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J13" s="4">
+        <f>E13</f>
+        <v>2.82</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="10">
+        <v>9</v>
+      </c>
+      <c r="N13" s="4">
+        <f>I13+N$4</f>
+        <v>5.3699999999999992</v>
+      </c>
+      <c r="O13" s="4">
+        <f>J13</f>
+        <v>2.82</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="10">
+        <v>11</v>
+      </c>
+      <c r="S13" s="4">
+        <f>N13+S$4</f>
+        <v>5.8899999999999988</v>
+      </c>
+      <c r="T13" s="4">
+        <f>O13</f>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2.82</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <f>D14+I$4</f>
+        <v>4.92</v>
+      </c>
+      <c r="J14" s="4">
+        <f>E14</f>
+        <v>2.82</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="10">
+        <v>5</v>
+      </c>
+      <c r="N14" s="4">
+        <f>I14+N$4</f>
+        <v>5.4399999999999995</v>
+      </c>
+      <c r="O14" s="4">
+        <f>J14</f>
+        <v>2.82</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="10">
+        <v>6</v>
+      </c>
+      <c r="S14" s="4">
+        <f>N14+S$4</f>
+        <v>5.9599999999999991</v>
+      </c>
+      <c r="T14" s="4">
+        <f>O14</f>
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <f>D15+I$4</f>
+        <v>4.92</v>
+      </c>
+      <c r="J15" s="4">
+        <f>E15</f>
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="10">
+        <v>3</v>
+      </c>
+      <c r="N15" s="4">
+        <f>I15+N$4</f>
+        <v>5.4399999999999995</v>
+      </c>
+      <c r="O15" s="4">
+        <f>J15</f>
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="10">
+        <v>4</v>
+      </c>
+      <c r="S15" s="4">
+        <f>N15+S$4</f>
+        <v>5.9599999999999991</v>
+      </c>
+      <c r="T15" s="4">
+        <f>O15</f>
+        <v>2.9830000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="14">
+        <f>E19</f>
+        <v>0.77</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="14">
+        <f>J19</f>
+        <v>0.77</v>
+      </c>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="14">
+        <f>O19</f>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="10">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11">
+        <f>D5</f>
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="E20" s="11">
+        <f>E$19+E5</f>
+        <v>3.4</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="10">
+        <v>10</v>
+      </c>
+      <c r="I20" s="11">
+        <f>I5</f>
+        <v>4.7449999999999992</v>
+      </c>
+      <c r="J20" s="11">
+        <f>J$19+J5</f>
+        <v>3.4</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="10">
+        <v>13</v>
+      </c>
+      <c r="N20" s="11">
+        <f>N5</f>
+        <v>5.2649999999999988</v>
+      </c>
+      <c r="O20" s="11">
+        <f>O$19+O5</f>
+        <v>3.4</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="10">
+        <v>14</v>
+      </c>
+      <c r="S20" s="11">
+        <f>S5</f>
+        <v>5.7849999999999984</v>
+      </c>
+      <c r="T20" s="11">
+        <f>T$19+T5</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11">
+        <f>D6</f>
+        <v>4.2030000000000003</v>
+      </c>
+      <c r="E21" s="11">
+        <f>E$19+E6</f>
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="10">
+        <v>6</v>
+      </c>
+      <c r="I21" s="11">
+        <f>I6</f>
+        <v>4.7230000000000008</v>
+      </c>
+      <c r="J21" s="11">
+        <f>J$19+J6</f>
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="10">
+        <v>7</v>
+      </c>
+      <c r="N21" s="11">
+        <f>N6</f>
+        <v>5.2430000000000003</v>
+      </c>
+      <c r="O21" s="11">
+        <f>O$19+O6</f>
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" s="10">
+        <v>8</v>
+      </c>
+      <c r="S21" s="11">
+        <f>S6</f>
+        <v>5.7629999999999999</v>
+      </c>
+      <c r="T21" s="11">
+        <f>T$19+T6</f>
+        <v>3.7530000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="10">
+        <v>11</v>
+      </c>
+      <c r="D22" s="11">
+        <f>D7</f>
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="E22" s="11">
+        <f>E$19+E7</f>
+        <v>3.92</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="10">
+        <v>12</v>
+      </c>
+      <c r="I22" s="11">
+        <f>I7</f>
+        <v>4.7449999999999992</v>
+      </c>
+      <c r="J22" s="11">
+        <f>J$19+J7</f>
+        <v>3.92</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="10">
+        <v>15</v>
+      </c>
+      <c r="N22" s="11">
+        <f>N7</f>
+        <v>5.2649999999999988</v>
+      </c>
+      <c r="O22" s="11">
+        <f>O$19+O7</f>
+        <v>3.92</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="10">
+        <v>16</v>
+      </c>
+      <c r="S22" s="11">
+        <f>S7</f>
+        <v>5.7849999999999984</v>
+      </c>
+      <c r="T22" s="11">
+        <f>T$19+T7</f>
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="6" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="1"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="1"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="10">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11">
+        <f>D9</f>
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="E24" s="11">
+        <f>E$19+E9</f>
+        <v>3.59</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="10">
+        <v>12</v>
+      </c>
+      <c r="I24" s="11">
+        <f>I9</f>
+        <v>4.5649999999999995</v>
+      </c>
+      <c r="J24" s="11">
+        <f>J$19+J9</f>
+        <v>3.59</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="10">
+        <v>15</v>
+      </c>
+      <c r="N24" s="11">
+        <f>N9</f>
+        <v>5.0849999999999991</v>
+      </c>
+      <c r="O24" s="11">
+        <f>O$19+O9</f>
+        <v>3.59</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="10">
+        <v>16</v>
+      </c>
+      <c r="S24" s="11">
+        <f>S9</f>
+        <v>5.6049999999999986</v>
+      </c>
+      <c r="T24" s="11">
+        <f>T$19+T9</f>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="10">
+        <v>18</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" ref="D25:D30" si="0">D10</f>
+        <v>4.12</v>
+      </c>
+      <c r="E25" s="11">
+        <f>E$19+E10</f>
+        <v>3.59</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="10">
+        <v>20</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" ref="I25:I30" si="1">I10</f>
+        <v>4.6400000000000006</v>
+      </c>
+      <c r="J25" s="11">
+        <f>J$19+J10</f>
+        <v>3.59</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="10">
+        <v>26</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" ref="N25:N30" si="2">N10</f>
+        <v>5.16</v>
+      </c>
+      <c r="O25" s="11">
+        <f>O$19+O10</f>
+        <v>3.59</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R25" s="10">
+        <v>28</v>
+      </c>
+      <c r="S25" s="11">
+        <f t="shared" ref="S25:S30" si="3">S10</f>
+        <v>5.68</v>
+      </c>
+      <c r="T25" s="11">
+        <f>T$19+T10</f>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="10">
+        <v>22</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E26" s="11">
+        <f>E$19+E11</f>
+        <v>3.59</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="10">
+        <v>24</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="1"/>
+        <v>4.7100000000000009</v>
+      </c>
+      <c r="J26" s="11">
+        <f>J$19+J11</f>
+        <v>3.59</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="10">
+        <v>30</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="2"/>
+        <v>5.23</v>
+      </c>
+      <c r="O26" s="11">
+        <f>O$19+O11</f>
+        <v>3.59</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R26" s="10">
+        <v>32</v>
+      </c>
+      <c r="S26" s="11">
+        <f t="shared" si="3"/>
+        <v>5.75</v>
+      </c>
+      <c r="T26" s="11">
+        <f>T$19+T11</f>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="10">
+        <v>21</v>
+      </c>
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>4.26</v>
+      </c>
+      <c r="E27" s="11">
+        <f>E$19+E12</f>
+        <v>3.59</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="10">
+        <v>23</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="1"/>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="J27" s="11">
+        <f>J$19+J12</f>
+        <v>3.59</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" s="10">
+        <v>29</v>
+      </c>
+      <c r="N27" s="11">
+        <f t="shared" si="2"/>
+        <v>5.2999999999999989</v>
+      </c>
+      <c r="O27" s="11">
+        <f>O$19+O12</f>
+        <v>3.59</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" s="10">
+        <v>31</v>
+      </c>
+      <c r="S27" s="11">
+        <f t="shared" si="3"/>
+        <v>5.8199999999999985</v>
+      </c>
+      <c r="T27" s="11">
+        <f>T$19+T12</f>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="10">
+        <v>17</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
+        <v>4.33</v>
+      </c>
+      <c r="E28" s="11">
+        <f>E$19+E13</f>
+        <v>3.59</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="10">
+        <v>19</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="1"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J28" s="11">
+        <f>J$19+J13</f>
+        <v>3.59</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="10">
+        <v>25</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="2"/>
+        <v>5.3699999999999992</v>
+      </c>
+      <c r="O28" s="11">
+        <f>O$19+O13</f>
+        <v>3.59</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28" s="10">
+        <v>27</v>
+      </c>
+      <c r="S28" s="11">
+        <f t="shared" si="3"/>
+        <v>5.8899999999999988</v>
+      </c>
+      <c r="T28" s="11">
+        <f>T$19+T13</f>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="10">
+        <v>9</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E29" s="11">
+        <f>E$19+E14</f>
+        <v>3.59</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="10">
+        <v>10</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="1"/>
+        <v>4.92</v>
+      </c>
+      <c r="J29" s="11">
+        <f>J$19+J14</f>
+        <v>3.59</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="10">
+        <v>13</v>
+      </c>
+      <c r="N29" s="11">
+        <f t="shared" si="2"/>
+        <v>5.4399999999999995</v>
+      </c>
+      <c r="O29" s="11">
+        <f>O$19+O14</f>
+        <v>3.59</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R29" s="10">
+        <v>14</v>
+      </c>
+      <c r="S29" s="11">
+        <f t="shared" si="3"/>
+        <v>5.9599999999999991</v>
+      </c>
+      <c r="T29" s="11">
+        <f>T$19+T14</f>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="10">
+        <v>5</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E30" s="11">
+        <f>E$19+E15</f>
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="10">
+        <v>6</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="1"/>
+        <v>4.92</v>
+      </c>
+      <c r="J30" s="11">
+        <f>J$19+J15</f>
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="10">
+        <v>7</v>
+      </c>
+      <c r="N30" s="11">
+        <f t="shared" si="2"/>
+        <v>5.4399999999999995</v>
+      </c>
+      <c r="O30" s="11">
+        <f>O$19+O15</f>
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="10">
+        <v>8</v>
+      </c>
+      <c r="S30" s="11">
+        <f t="shared" si="3"/>
+        <v>5.9599999999999991</v>
+      </c>
+      <c r="T30" s="11">
+        <f>T$19+T15</f>
+        <v>3.7530000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61">
+        <v>0.5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" s="4">
+        <f>D61/25.4</f>
+        <v>1.968503937007874E-2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="4">
+        <f>D64/25.4</f>
+        <v>3.937007874015748E-2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68">
+        <v>90</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" s="4">
+        <f>D68/25.4</f>
+        <v>3.5433070866141736</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71">
+        <v>40</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="4">
+        <f>D71/25.4</f>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1589,11 +3237,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
